--- a/excel/import_data_blog.xlsx
+++ b/excel/import_data_blog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Coolness2_CI_KOYOS\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\fano2.11_CI_KOYOS\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70DCC44-F375-4E3C-91CB-DAA4C74AA356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9085A4B6-C855-41D3-9F49-513B40F2998A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="50">
   <si>
     <t>foto</t>
   </si>
@@ -34,51 +34,6 @@
     <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
   </si>
   <si>
-    <t>COBA AJA</t>
-  </si>
-  <si>
-    <t>Coba Doang</t>
-  </si>
-  <si>
-    <t>Nyoba lagi</t>
-  </si>
-  <si>
-    <t>http://localhost/Coolness2_CI_KOYOS/inti/images/shop/01.jpg</t>
-  </si>
-  <si>
-    <t>http://localhost/Coolness2_CI_KOYOS/inti/images/shop/02.jpg</t>
-  </si>
-  <si>
-    <t>http://localhost/Coolness2_CI_KOYOS/inti/images/shop/03.jpg</t>
-  </si>
-  <si>
-    <t>http://localhost/Coolness2_CI_KOYOS/inti/images/shop/04.jpg</t>
-  </si>
-  <si>
-    <t>http://localhost/Coolness2_CI_KOYOS/inti/images/shop/05.jpg</t>
-  </si>
-  <si>
-    <t>http://localhost/Coolness2_CI_KOYOS/inti/images/shop/06.jpg</t>
-  </si>
-  <si>
-    <t>http://localhost/Coolness2_CI_KOYOS/inti/images/shop/07.jpg</t>
-  </si>
-  <si>
-    <t>http://localhost/Coolness2_CI_KOYOS/inti/images/shop/08.jpg</t>
-  </si>
-  <si>
-    <t>http://localhost/Coolness2_CI_KOYOS/inti/images/shop/09.jpg</t>
-  </si>
-  <si>
-    <t>http://localhost/Coolness2_CI_KOYOS/inti/images/shop/10.jpg</t>
-  </si>
-  <si>
-    <t>http://localhost/Coolness2_CI_KOYOS/inti/images/shop/11.jpg</t>
-  </si>
-  <si>
-    <t>http://localhost/Coolness2_CI_KOYOS/inti/images/shop/12.jpg</t>
-  </si>
-  <si>
     <t>Judul</t>
   </si>
   <si>
@@ -88,12 +43,6 @@
     <t>Nama admin</t>
   </si>
   <si>
-    <t>Quotes</t>
-  </si>
-  <si>
-    <t>Quotes_Author</t>
-  </si>
-  <si>
     <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry.</t>
   </si>
   <si>
@@ -206,6 +155,21 @@
   </si>
   <si>
     <t>ahauwlie</t>
+  </si>
+  <si>
+    <t>Mini Text</t>
+  </si>
+  <si>
+    <t>http://localhost/fano2.11_CI_KOYOS/inti/images/photo.png</t>
+  </si>
+  <si>
+    <t>Nyoba aja</t>
+  </si>
+  <si>
+    <t>Hayooo</t>
+  </si>
+  <si>
+    <t>eeeaaaa</t>
   </si>
 </sst>
 </file>
@@ -261,10 +225,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -296,15 +258,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H37" totalsRowShown="0">
-  <autoFilter ref="A1:H37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G37" totalsRowShown="0">
+  <autoFilter ref="A1:G37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Judul"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tanggal"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Deskripsi"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Nama admin" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Quotes" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Quotes_Author"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Mini Text" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="foto"/>
     <tableColumn id="8" xr3:uid="{EDFAEBAC-F0BD-469A-B706-07A42950B73D}" name="Kategori" dataDxfId="0"/>
   </tableColumns>
@@ -633,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D37"/>
+      <selection activeCell="C2" sqref="C2:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,1018 +607,874 @@
     <col min="3" max="3" width="113.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="59.28515625" customWidth="1"/>
-    <col min="8" max="9" width="22.42578125" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" customWidth="1"/>
-    <col min="11" max="11" width="30.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="59.28515625" customWidth="1"/>
+    <col min="7" max="8" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3">
         <v>44011</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3">
         <v>44012</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3">
         <v>44013</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3">
         <v>44014</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="B6" s="3">
         <v>44015</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
         <v>44016</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3">
         <v>44017</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3">
         <v>44018</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3">
         <v>44019</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3">
         <v>44020</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3">
         <v>44021</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3">
         <v>44022</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3">
         <v>44023</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3">
         <v>44024</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B16" s="3">
         <v>44025</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3">
         <v>44026</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="B18" s="3">
         <v>44027</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B19" s="3">
         <v>44028</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3">
         <v>44029</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B21" s="3">
         <v>44030</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B22" s="3">
         <v>44031</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3">
         <v>44032</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B24" s="3">
         <v>44033</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3">
         <v>44034</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B26" s="3">
         <v>44035</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B27" s="3">
         <v>44036</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3">
         <v>44037</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B29" s="3">
         <v>44038</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B30" s="3">
         <v>44039</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3">
         <v>44040</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B32" s="3">
         <v>44041</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B33" s="3">
         <v>44042</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B34" s="3">
         <v>44043</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B35" s="3">
         <v>44044</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B36" s="3">
         <v>44045</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B37" s="3">
         <v>44046</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="2">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://kavio_such_ci.test/Blog" xr:uid="{E22867E9-4BC1-4099-AFFC-57B09122105F}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{EA5C0BFA-8228-43D7-899E-93A36F5B6E95}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{CCC9242F-08F4-43CD-8378-92538E60DA2E}"/>
-    <hyperlink ref="G4" r:id="rId4" xr:uid="{FEE9FA06-5604-4150-BF08-C37BA76F2414}"/>
-    <hyperlink ref="G5" r:id="rId5" xr:uid="{C69B9F59-DF07-4654-AF7A-614ED78B51CF}"/>
-    <hyperlink ref="G6" r:id="rId6" xr:uid="{3818BBF4-E827-4423-BA88-34D44E8A7CF9}"/>
-    <hyperlink ref="G7" r:id="rId7" xr:uid="{A633FE48-46C7-463A-B917-C03A082B3FFA}"/>
-    <hyperlink ref="G8" r:id="rId8" xr:uid="{7D3BF95F-3FF3-405F-ABFD-5AB9096E5835}"/>
-    <hyperlink ref="G9" r:id="rId9" xr:uid="{4C02FD23-DC8A-4C4F-BAE4-9914465B9C1B}"/>
-    <hyperlink ref="G10" r:id="rId10" xr:uid="{B9AC5849-EF75-4406-93D6-B5C42445A270}"/>
-    <hyperlink ref="G11" r:id="rId11" xr:uid="{B00D421A-AD08-4455-9B0F-047595F02B44}"/>
-    <hyperlink ref="G12" r:id="rId12" xr:uid="{C74F0478-7545-4042-BC07-210F31B80AB4}"/>
-    <hyperlink ref="G13" r:id="rId13" xr:uid="{1D0C0C6C-D571-44E9-BC48-E586D123615E}"/>
-    <hyperlink ref="G14" r:id="rId14" xr:uid="{BDAFEF0A-7161-430B-A976-6B36677A53B4}"/>
-    <hyperlink ref="G15" r:id="rId15" xr:uid="{41F28B3F-8A3C-4BBB-AE2A-6BC52DB2C466}"/>
-    <hyperlink ref="G16" r:id="rId16" xr:uid="{B533D419-DCC7-44F9-89A6-6D2177A35651}"/>
-    <hyperlink ref="G17" r:id="rId17" xr:uid="{8B8568CA-C55A-4E51-99EB-0E7A6F0781CE}"/>
-    <hyperlink ref="G18" r:id="rId18" xr:uid="{4A016E26-8C2D-4FAD-85AB-ADCF02D26B9C}"/>
-    <hyperlink ref="G19" r:id="rId19" xr:uid="{A4FB90DB-B545-4FE2-966F-035F665B3C07}"/>
-    <hyperlink ref="G20" r:id="rId20" xr:uid="{31892ACF-EDAD-4F78-A1A5-75E5C8DF33A4}"/>
-    <hyperlink ref="G21" r:id="rId21" xr:uid="{44874220-66D0-413E-A3C5-12A34B532514}"/>
-    <hyperlink ref="H2" r:id="rId22" display="http://localhost/Coolness2_CI_KOYOS/inti/images/shop/12.jpg" xr:uid="{A7DD30C1-15DF-4479-B8B2-672221A498B8}"/>
-    <hyperlink ref="H18" r:id="rId23" display="http://localhost/Coolness2_CI_KOYOS/inti/images/shop/03.jpg" xr:uid="{1B43B22A-D951-40C2-9535-E71570D6F6D2}"/>
-    <hyperlink ref="C3:C21" r:id="rId24" display="http://kavio_such_ci.test/Blog" xr:uid="{8DF50C69-6D21-4235-A48C-2C724D0F9F50}"/>
-    <hyperlink ref="G22" r:id="rId25" xr:uid="{3B4AAC64-DAAF-43B7-8FB6-AAD8E189771E}"/>
-    <hyperlink ref="G23" r:id="rId26" xr:uid="{A3D8EBBF-55B3-4D0E-A658-905CC65B8972}"/>
-    <hyperlink ref="G24" r:id="rId27" xr:uid="{1E834B40-ACB5-4704-B5A9-00D681F8B655}"/>
-    <hyperlink ref="C22:C24" r:id="rId28" display="http://kavio_such_ci.test/Blog" xr:uid="{15FE008E-2E92-4D03-B8BD-C140410864DB}"/>
-    <hyperlink ref="G25" r:id="rId29" xr:uid="{F6251743-7E51-4E05-B85E-4A05C34F8E31}"/>
-    <hyperlink ref="C25" r:id="rId30" display="http://kavio_such_ci.test/Blog" xr:uid="{CE72CB94-9B04-411D-8594-18F2B0603E1E}"/>
-    <hyperlink ref="H3:H17" r:id="rId31" display="http://localhost/Coolness2_CI_KOYOS/inti/images/shop/12.jpg" xr:uid="{B3308BD4-5E18-4E07-AC44-D4A4BD0E219D}"/>
-    <hyperlink ref="H19:H25" r:id="rId32" display="http://localhost/Coolness2_CI_KOYOS/inti/images/shop/03.jpg" xr:uid="{604784C4-A0D5-406A-8655-17B6616D2ED4}"/>
-    <hyperlink ref="G26:G37" r:id="rId33" display="http://localhost/Coolness2_CI_KOYOS/inti/images/shop/04.jpg" xr:uid="{3A3659A1-A52C-451B-A00D-3348DDDF9BE6}"/>
-    <hyperlink ref="C26:C37" r:id="rId34" display="http://kavio_such_ci.test/Blog" xr:uid="{A90F0786-FF29-4265-A0CD-C66027597928}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{72DF89C9-8DD9-4F2C-8473-8A0A26A50D50}"/>
+    <hyperlink ref="F3:F37" r:id="rId2" display="http://localhost/fano2.11_CI_KOYOS/inti/images/photo.png" xr:uid="{E618AF49-FB1C-40CC-9CBB-5B8EB723047D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId35"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId36"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>